--- a/services/excel-file-watcher/excel-imports/inventory-2025-12-13.xlsx
+++ b/services/excel-file-watcher/excel-imports/inventory-2025-12-13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Platform Sales &amp; Procurement\services\excel-file-watcher\excel-imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2BC13B-6D07-40C9-8BB9-4FAEC3BC84CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140E2B8F-F960-497D-A7D8-CEE5940E337C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="855" windowWidth="18000" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="690" windowWidth="18000" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -326,6 +326,18 @@
   </si>
   <si>
     <t>2345 542 3544</t>
+  </si>
+  <si>
+    <t>rat yrok</t>
+  </si>
+  <si>
+    <t>erytfvnbguns gr</t>
+  </si>
+  <si>
+    <t>54 trqaes</t>
+  </si>
+  <si>
+    <t>6543 567464</t>
   </si>
 </sst>
 </file>
@@ -709,7 +721,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
       <selection activeCell="B97" sqref="B97"/>
@@ -3727,6 +3739,26 @@
         <v>700</v>
       </c>
     </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98">
+        <v>8000</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F98">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/services/excel-file-watcher/excel-imports/inventory-2025-12-13.xlsx
+++ b/services/excel-file-watcher/excel-imports/inventory-2025-12-13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Platform Sales &amp; Procurement\services\excel-file-watcher\excel-imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140E2B8F-F960-497D-A7D8-CEE5940E337C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B853A5-3F2F-4EB6-B5BC-393FEA27D984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="690" windowWidth="18000" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="645" windowWidth="18000" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="114">
   <si>
     <t>Name</t>
   </si>
@@ -338,6 +338,30 @@
   </si>
   <si>
     <t>6543 567464</t>
+  </si>
+  <si>
+    <t>BANG</t>
+  </si>
+  <si>
+    <t>EWQEVVF GERYDS</t>
+  </si>
+  <si>
+    <t>RETY5 5</t>
+  </si>
+  <si>
+    <t>F4FEW-3RRWE</t>
+  </si>
+  <si>
+    <t>EQERETTR</t>
+  </si>
+  <si>
+    <t>FERRRYGJNHRK</t>
+  </si>
+  <si>
+    <t>RETVVVERGKL</t>
+  </si>
+  <si>
+    <t>NYKEWT</t>
   </si>
 </sst>
 </file>
@@ -721,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3759,6 +3783,46 @@
         <v>60</v>
       </c>
     </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" t="s">
+        <v>108</v>
+      </c>
+      <c r="D99">
+        <v>800000</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F99">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" t="s">
+        <v>112</v>
+      </c>
+      <c r="D100">
+        <v>120000</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F100">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
